--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2673.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2673.xlsx
@@ -354,7 +354,7 @@
         <v>2.421846204043288</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.329007643378588</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2673.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2673.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16058954104623</v>
+        <v>1.107940196990967</v>
       </c>
       <c r="B1">
-        <v>2.421846204043288</v>
+        <v>1.266552925109863</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.590944051742554</v>
       </c>
       <c r="D1">
-        <v>2.329007643378588</v>
+        <v>3.254141569137573</v>
       </c>
       <c r="E1">
-        <v>1.210899549765954</v>
+        <v>4.092807769775391</v>
       </c>
     </row>
   </sheetData>
